--- a/expedia/templates/FillDown Repeater.xlsx
+++ b/expedia/templates/FillDown Repeater.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Library/Mobile Documents/com~apple~CloudDocs/Dev/workspace/APM_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Dev/workspace/expedia/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A6D5E2-1616-FB4B-9959-136471A18448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407A30F3-9DD1-334B-BED2-BF9DF2CD7984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="620" windowWidth="25600" windowHeight="26660" xr2:uid="{F27A3CC8-6F10-42DB-B1EE-873F2DD0F8E3}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>HelperColumn</t>
   </si>
@@ -78,103 +78,34 @@
     <t>Result EIDs</t>
   </si>
   <si>
-    <t>21932267</t>
+    <t>124966837</t>
   </si>
   <si>
-    <t>23361296</t>
+    <t>124966838</t>
   </si>
   <si>
-    <t>19885762</t>
+    <t>124966839</t>
   </si>
   <si>
-    <t>63159259</t>
+    <t>124966840</t>
   </si>
   <si>
-    <t>19414346</t>
+    <t>124966841</t>
   </si>
   <si>
-    <t>18440788</t>
+    <t>124966842</t>
   </si>
   <si>
-    <t>19414383</t>
+    <t>124966843</t>
   </si>
   <si>
-    <t>19414391</t>
+    <t>124966844</t>
   </si>
   <si>
-    <t>19885664</t>
+    <t>124966845</t>
   </si>
   <si>
-    <t>19885782</t>
-  </si>
-  <si>
-    <t>15052995</t>
-  </si>
-  <si>
-    <t>15646452</t>
-  </si>
-  <si>
-    <t>16108903</t>
-  </si>
-  <si>
-    <t>17925580</t>
-  </si>
-  <si>
-    <t>74523056</t>
-  </si>
-  <si>
-    <t>74532303</t>
-  </si>
-  <si>
-    <t>87421621</t>
-  </si>
-  <si>
-    <t>90809698</t>
-  </si>
-  <si>
-    <t>90810296</t>
-  </si>
-  <si>
-    <t>90810343</t>
-  </si>
-  <si>
-    <t>92785522</t>
-  </si>
-  <si>
-    <t>93862595</t>
-  </si>
-  <si>
-    <t>95322649</t>
-  </si>
-  <si>
-    <t>95800973</t>
-  </si>
-  <si>
-    <t>96444007</t>
-  </si>
-  <si>
-    <t>96859613</t>
-  </si>
-  <si>
-    <t>101003898</t>
-  </si>
-  <si>
-    <t>101003606</t>
-  </si>
-  <si>
-    <t>101003818</t>
-  </si>
-  <si>
-    <t>101385471</t>
-  </si>
-  <si>
-    <t>102324794</t>
-  </si>
-  <si>
-    <t>105614311</t>
-  </si>
-  <si>
-    <t>106528896</t>
+    <t>124966846</t>
   </si>
 </sst>
 </file>
@@ -623,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1508F378-CB3F-492D-A969-B9389849352C}">
   <dimension ref="A1:F7955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F103" sqref="F2:F103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -652,35 +583,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" cm="1">
-        <f t="array" aca="1" ref="E2:E752" ca="1">_xlfn.SEQUENCE(OFFSET(A1,COUNTA(A:A)-1,0))</f>
+        <f t="array" aca="1" ref="E2:E1002" ca="1">_xlfn.SEQUENCE(OFFSET(A1,COUNTA(A:A)-1,0))</f>
         <v>1</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">VLOOKUP(E2,$A$2:$B$978,2)</f>
-        <v>21932267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>124966837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>A2+C2</f>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
       </c>
       <c r="E3">
         <f ca="1"/>
@@ -688,19 +619,19 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" ca="1" si="0">VLOOKUP(E3,$A$2:$B$978,2)</f>
-        <v>21932267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>124966837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A67" si="1">A3+C3</f>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <f ca="1"/>
@@ -708,19 +639,19 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>21932267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>124966837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f ca="1"/>
@@ -728,19 +659,19 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>23361296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>124966837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f ca="1"/>
@@ -748,19 +679,19 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>23361296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>124966838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f ca="1"/>
@@ -768,19 +699,19 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>23361296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>124966838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <f ca="1"/>
@@ -788,19 +719,19 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19885762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>124966838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <f ca="1"/>
@@ -808,19 +739,19 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19885762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>124966838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <f ca="1"/>
@@ -828,19 +759,19 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19885762</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>124966839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <f ca="1"/>
@@ -848,19 +779,17 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>63159259</v>
+        <v>124966839</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <f ca="1"/>
@@ -868,19 +797,17 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>63159259</v>
+        <v>124966839</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <f ca="1"/>
@@ -888,19 +815,17 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>63159259</v>
+        <v>124966839</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <f ca="1"/>
@@ -908,19 +833,17 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19414346</v>
+        <v>124966840</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <f ca="1"/>
@@ -928,19 +851,17 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19414346</v>
+        <v>124966840</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <f ca="1"/>
@@ -948,19 +869,17 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19414346</v>
+        <v>124966840</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <f ca="1"/>
@@ -968,19 +887,17 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>18440788</v>
+        <v>124966840</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <f ca="1"/>
@@ -988,19 +905,17 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>18440788</v>
+        <v>124966841</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <f ca="1"/>
@@ -1008,19 +923,17 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>18440788</v>
+        <v>124966841</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B20" s="3"/>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <f ca="1"/>
@@ -1028,19 +941,17 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19414383</v>
+        <v>124966841</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B21" s="3"/>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <f ca="1"/>
@@ -1048,19 +959,17 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19414383</v>
+        <v>124966841</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B22" s="3"/>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <f ca="1"/>
@@ -1068,19 +977,17 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19414383</v>
+        <v>124966842</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <f ca="1"/>
@@ -1088,19 +995,17 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19414391</v>
+        <v>124966842</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <f ca="1"/>
@@ -1108,19 +1013,17 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19414391</v>
+        <v>124966842</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <f ca="1"/>
@@ -1128,19 +1031,17 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19414391</v>
+        <v>124966842</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <f ca="1"/>
@@ -1148,19 +1049,17 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19885664</v>
+        <v>124966843</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <f ca="1"/>
@@ -1168,19 +1067,17 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19885664</v>
+        <v>124966843</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <f ca="1"/>
@@ -1188,19 +1085,17 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19885664</v>
+        <v>124966843</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29">
         <f ca="1"/>
@@ -1208,19 +1103,17 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19885782</v>
+        <v>124966843</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B30" s="3"/>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <f ca="1"/>
@@ -1228,19 +1121,17 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19885782</v>
+        <v>124966844</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <f ca="1"/>
@@ -1248,19 +1139,17 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19885782</v>
+        <v>124966844</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B32" s="3"/>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <f ca="1"/>
@@ -1268,19 +1157,17 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15052995</v>
+        <v>124966844</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33">
         <f ca="1"/>
@@ -1288,19 +1175,17 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15052995</v>
+        <v>124966844</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B34" s="3"/>
       <c r="C34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <f ca="1"/>
@@ -1308,19 +1193,17 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15052995</v>
+        <v>124966845</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B35" s="3">
-        <v>113095762</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B35" s="3"/>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <f ca="1"/>
@@ -1328,16 +1211,16 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15646452</v>
+        <v>124966845</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <f ca="1"/>
@@ -1345,16 +1228,16 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15646452</v>
+        <v>124966845</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <f ca="1"/>
@@ -1362,16 +1245,16 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15646452</v>
+        <v>124966845</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <f ca="1"/>
@@ -1379,16 +1262,16 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>16108903</v>
+        <v>124966846</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <f ca="1"/>
@@ -1396,16 +1279,16 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>16108903</v>
+        <v>124966846</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <f ca="1"/>
@@ -1413,16 +1296,16 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>16108903</v>
+        <v>124966846</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <f ca="1"/>
@@ -1430,1019 +1313,1019 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17925580</v>
+        <v>124966846</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42">
         <f ca="1"/>
         <v>41</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42">
         <f t="shared" ca="1" si="0"/>
-        <v>17925580</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <f ca="1"/>
         <v>42</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43">
         <f t="shared" ca="1" si="0"/>
-        <v>17925580</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <f ca="1"/>
         <v>43</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44">
         <f t="shared" ca="1" si="0"/>
-        <v>74523056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45">
         <f ca="1"/>
         <v>44</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45">
         <f t="shared" ca="1" si="0"/>
-        <v>74523056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <f ca="1"/>
         <v>45</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F46">
         <f t="shared" ca="1" si="0"/>
-        <v>74523056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <f ca="1"/>
         <v>46</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47">
         <f t="shared" ca="1" si="0"/>
-        <v>74532303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <f ca="1"/>
         <v>47</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F48">
         <f t="shared" ca="1" si="0"/>
-        <v>74532303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <f ca="1"/>
         <v>48</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49">
         <f t="shared" ca="1" si="0"/>
-        <v>74532303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <f t="shared" si="1"/>
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <f ca="1"/>
         <v>49</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F50">
         <f t="shared" ca="1" si="0"/>
-        <v>87421621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f t="shared" si="1"/>
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <f ca="1"/>
         <v>50</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51">
         <f t="shared" ca="1" si="0"/>
-        <v>87421621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <f ca="1"/>
         <v>51</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52">
         <f t="shared" ca="1" si="0"/>
-        <v>87421621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <f ca="1"/>
         <v>52</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53">
         <f t="shared" ca="1" si="0"/>
-        <v>90809698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <f ca="1"/>
         <v>53</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54">
         <f t="shared" ca="1" si="0"/>
-        <v>90809698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <f ca="1"/>
         <v>54</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F55">
         <f t="shared" ca="1" si="0"/>
-        <v>90809698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <f t="shared" si="1"/>
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <f ca="1"/>
         <v>55</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F56">
         <f t="shared" ca="1" si="0"/>
-        <v>90810296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <f ca="1"/>
         <v>56</v>
       </c>
-      <c r="F57" t="str">
+      <c r="F57">
         <f t="shared" ca="1" si="0"/>
-        <v>90810296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <f ca="1"/>
         <v>57</v>
       </c>
-      <c r="F58" t="str">
+      <c r="F58">
         <f t="shared" ca="1" si="0"/>
-        <v>90810296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <f ca="1"/>
         <v>58</v>
       </c>
-      <c r="F59" t="str">
+      <c r="F59">
         <f t="shared" ca="1" si="0"/>
-        <v>90810343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <f ca="1"/>
         <v>59</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F60">
         <f t="shared" ca="1" si="0"/>
-        <v>90810343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <f ca="1"/>
         <v>60</v>
       </c>
-      <c r="F61" t="str">
+      <c r="F61">
         <f t="shared" ca="1" si="0"/>
-        <v>90810343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <f t="shared" si="1"/>
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E62">
         <f ca="1"/>
         <v>61</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F62">
         <f t="shared" ca="1" si="0"/>
-        <v>92785522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <f ca="1"/>
         <v>62</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63">
         <f t="shared" ca="1" si="0"/>
-        <v>92785522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <f t="shared" si="1"/>
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <f ca="1"/>
         <v>63</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64">
         <f t="shared" ca="1" si="0"/>
-        <v>92785522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65">
         <f ca="1"/>
         <v>64</v>
       </c>
-      <c r="F65" t="str">
+      <c r="F65">
         <f t="shared" ca="1" si="0"/>
-        <v>93862595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E66">
         <f ca="1"/>
         <v>65</v>
       </c>
-      <c r="F66" t="str">
+      <c r="F66">
         <f t="shared" ca="1" si="0"/>
-        <v>93862595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <f ca="1"/>
         <v>66</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F67">
         <f t="shared" ref="F67:F130" ca="1" si="2">VLOOKUP(E67,$A$2:$B$978,2)</f>
-        <v>93862595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <f t="shared" ref="A68:A131" si="3">A67+C67</f>
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E68">
         <f ca="1"/>
         <v>67</v>
       </c>
-      <c r="F68" t="str">
+      <c r="F68">
         <f t="shared" ca="1" si="2"/>
-        <v>95322649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69">
         <f ca="1"/>
         <v>68</v>
       </c>
-      <c r="F69" t="str">
+      <c r="F69">
         <f t="shared" ca="1" si="2"/>
-        <v>95322649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70">
         <f ca="1"/>
         <v>69</v>
       </c>
-      <c r="F70" t="str">
+      <c r="F70">
         <f t="shared" ca="1" si="2"/>
-        <v>95322649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <f ca="1"/>
         <v>70</v>
       </c>
-      <c r="F71" t="str">
+      <c r="F71">
         <f t="shared" ca="1" si="2"/>
-        <v>95800973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72">
         <f ca="1"/>
         <v>71</v>
       </c>
-      <c r="F72" t="str">
+      <c r="F72">
         <f t="shared" ca="1" si="2"/>
-        <v>95800973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <f ca="1"/>
         <v>72</v>
       </c>
-      <c r="F73" t="str">
+      <c r="F73">
         <f t="shared" ca="1" si="2"/>
-        <v>95800973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74">
         <f ca="1"/>
         <v>73</v>
       </c>
-      <c r="F74" t="str">
+      <c r="F74">
         <f t="shared" ca="1" si="2"/>
-        <v>96444007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75">
         <f ca="1"/>
         <v>74</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F75">
         <f t="shared" ca="1" si="2"/>
-        <v>96444007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <f ca="1"/>
         <v>75</v>
       </c>
-      <c r="F76" t="str">
+      <c r="F76">
         <f t="shared" ca="1" si="2"/>
-        <v>96444007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <f ca="1"/>
         <v>76</v>
       </c>
-      <c r="F77" t="str">
+      <c r="F77">
         <f t="shared" ca="1" si="2"/>
-        <v>96859613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78">
         <f ca="1"/>
         <v>77</v>
       </c>
-      <c r="F78" t="str">
+      <c r="F78">
         <f t="shared" ca="1" si="2"/>
-        <v>96859613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <f ca="1"/>
         <v>78</v>
       </c>
-      <c r="F79" t="str">
+      <c r="F79">
         <f t="shared" ca="1" si="2"/>
-        <v>96859613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <f ca="1"/>
         <v>79</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F80">
         <f t="shared" ca="1" si="2"/>
-        <v>101003898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81">
         <f ca="1"/>
         <v>80</v>
       </c>
-      <c r="F81" t="str">
+      <c r="F81">
         <f t="shared" ca="1" si="2"/>
-        <v>101003898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <f t="shared" si="3"/>
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <f ca="1"/>
         <v>81</v>
       </c>
-      <c r="F82" t="str">
+      <c r="F82">
         <f t="shared" ca="1" si="2"/>
-        <v>101003898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E83">
         <f ca="1"/>
         <v>82</v>
       </c>
-      <c r="F83" t="str">
+      <c r="F83">
         <f t="shared" ca="1" si="2"/>
-        <v>101003606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <f t="shared" si="3"/>
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84">
         <f ca="1"/>
         <v>83</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F84">
         <f t="shared" ca="1" si="2"/>
-        <v>101003606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <f ca="1"/>
         <v>84</v>
       </c>
-      <c r="F85" t="str">
+      <c r="F85">
         <f t="shared" ca="1" si="2"/>
-        <v>101003606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <f t="shared" si="3"/>
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86">
         <f ca="1"/>
         <v>85</v>
       </c>
-      <c r="F86" t="str">
+      <c r="F86">
         <f t="shared" ca="1" si="2"/>
-        <v>101003818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <f t="shared" si="3"/>
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87">
         <f ca="1"/>
         <v>86</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F87">
         <f t="shared" ca="1" si="2"/>
-        <v>101003818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <f t="shared" si="3"/>
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E88">
         <f ca="1"/>
         <v>87</v>
       </c>
-      <c r="F88" t="str">
+      <c r="F88">
         <f t="shared" ca="1" si="2"/>
-        <v>101003818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <f t="shared" si="3"/>
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89">
         <f ca="1"/>
         <v>88</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F89">
         <f t="shared" ca="1" si="2"/>
-        <v>101385471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <f t="shared" si="3"/>
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90">
         <f ca="1"/>
         <v>89</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F90">
         <f t="shared" ca="1" si="2"/>
-        <v>101385471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <f t="shared" si="3"/>
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E91">
         <f ca="1"/>
         <v>90</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F91">
         <f t="shared" ca="1" si="2"/>
-        <v>101385471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <f t="shared" si="3"/>
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E92">
         <f ca="1"/>
         <v>91</v>
       </c>
-      <c r="F92" t="str">
+      <c r="F92">
         <f t="shared" ca="1" si="2"/>
-        <v>102324794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <f t="shared" si="3"/>
-        <v>274</v>
+        <v>365</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93">
         <f ca="1"/>
         <v>92</v>
       </c>
-      <c r="F93" t="str">
+      <c r="F93">
         <f t="shared" ca="1" si="2"/>
-        <v>102324794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <f t="shared" si="3"/>
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <f ca="1"/>
         <v>93</v>
       </c>
-      <c r="F94" t="str">
+      <c r="F94">
         <f t="shared" ca="1" si="2"/>
-        <v>102324794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <f ca="1"/>
         <v>94</v>
       </c>
-      <c r="F95" t="str">
+      <c r="F95">
         <f t="shared" ca="1" si="2"/>
-        <v>105614311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <f t="shared" si="3"/>
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E96">
         <f ca="1"/>
         <v>95</v>
       </c>
-      <c r="F96" t="str">
+      <c r="F96">
         <f t="shared" ca="1" si="2"/>
-        <v>105614311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <f t="shared" si="3"/>
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E97">
         <f ca="1"/>
         <v>96</v>
       </c>
-      <c r="F97" t="str">
+      <c r="F97">
         <f t="shared" ca="1" si="2"/>
-        <v>105614311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <f t="shared" si="3"/>
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E98">
         <f ca="1"/>
         <v>97</v>
       </c>
-      <c r="F98" t="str">
+      <c r="F98">
         <f t="shared" ca="1" si="2"/>
-        <v>106528896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>389</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <f ca="1"/>
         <v>98</v>
       </c>
-      <c r="F99" t="str">
+      <c r="F99">
         <f t="shared" ca="1" si="2"/>
-        <v>106528896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E100">
         <f ca="1"/>
         <v>99</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F100">
         <f t="shared" ca="1" si="2"/>
-        <v>106528896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <f ca="1"/>
@@ -2450,16 +2333,16 @@
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="2"/>
-        <v>113095762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <f t="shared" si="3"/>
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E102">
         <f ca="1"/>
@@ -2467,16 +2350,16 @@
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="2"/>
-        <v>113095762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <f t="shared" si="3"/>
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103">
         <f ca="1"/>
@@ -2484,16 +2367,16 @@
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="2"/>
-        <v>113095762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <f t="shared" si="3"/>
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E104">
         <f ca="1"/>
@@ -2507,10 +2390,10 @@
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <f t="shared" si="3"/>
-        <v>310</v>
+        <v>413</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E105">
         <f ca="1"/>
@@ -2524,10 +2407,10 @@
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <f t="shared" si="3"/>
-        <v>313</v>
+        <v>417</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E106">
         <f ca="1"/>
@@ -2541,10 +2424,10 @@
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <f t="shared" si="3"/>
-        <v>316</v>
+        <v>421</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E107">
         <f ca="1"/>
@@ -2558,10 +2441,10 @@
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <f t="shared" si="3"/>
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E108">
         <f ca="1"/>
@@ -2575,10 +2458,10 @@
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <f t="shared" si="3"/>
-        <v>322</v>
+        <v>429</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109">
         <f ca="1"/>
@@ -2592,10 +2475,10 @@
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E110">
         <f ca="1"/>
@@ -2609,10 +2492,10 @@
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <f t="shared" si="3"/>
-        <v>328</v>
+        <v>437</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E111">
         <f ca="1"/>
@@ -2626,10 +2509,10 @@
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <f t="shared" si="3"/>
-        <v>331</v>
+        <v>441</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E112">
         <f ca="1"/>
@@ -2643,10 +2526,10 @@
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <f t="shared" si="3"/>
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E113">
         <f ca="1"/>
@@ -2660,10 +2543,10 @@
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <f t="shared" si="3"/>
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114">
         <f ca="1"/>
@@ -2677,10 +2560,10 @@
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <f t="shared" si="3"/>
-        <v>340</v>
+        <v>453</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115">
         <f ca="1"/>
@@ -2694,10 +2577,10 @@
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <f t="shared" si="3"/>
-        <v>343</v>
+        <v>457</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E116">
         <f ca="1"/>
@@ -2711,10 +2594,10 @@
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <f t="shared" si="3"/>
-        <v>346</v>
+        <v>461</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E117">
         <f ca="1"/>
@@ -2728,10 +2611,10 @@
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <f t="shared" si="3"/>
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E118">
         <f ca="1"/>
@@ -2745,10 +2628,10 @@
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <f t="shared" si="3"/>
-        <v>352</v>
+        <v>469</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E119">
         <f ca="1"/>
@@ -2762,10 +2645,10 @@
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <f t="shared" si="3"/>
-        <v>355</v>
+        <v>473</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E120">
         <f ca="1"/>
@@ -2779,10 +2662,10 @@
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <f t="shared" si="3"/>
-        <v>358</v>
+        <v>477</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E121">
         <f ca="1"/>
@@ -2796,10 +2679,10 @@
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <f t="shared" si="3"/>
-        <v>361</v>
+        <v>481</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E122">
         <f ca="1"/>
@@ -2813,10 +2696,10 @@
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <f t="shared" si="3"/>
-        <v>364</v>
+        <v>485</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E123">
         <f ca="1"/>
@@ -2830,10 +2713,10 @@
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>489</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E124">
         <f ca="1"/>
@@ -2847,10 +2730,10 @@
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <f t="shared" si="3"/>
-        <v>370</v>
+        <v>493</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E125">
         <f ca="1"/>
@@ -2864,10 +2747,10 @@
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <f t="shared" si="3"/>
-        <v>373</v>
+        <v>497</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E126">
         <f ca="1"/>
@@ -2881,10 +2764,10 @@
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <f t="shared" si="3"/>
-        <v>376</v>
+        <v>501</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E127">
         <f ca="1"/>
@@ -2898,10 +2781,10 @@
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <f t="shared" si="3"/>
-        <v>379</v>
+        <v>505</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E128">
         <f ca="1"/>
@@ -2915,10 +2798,10 @@
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <f t="shared" si="3"/>
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E129">
         <f ca="1"/>
@@ -2932,10 +2815,10 @@
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <f t="shared" si="3"/>
-        <v>385</v>
+        <v>513</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E130">
         <f ca="1"/>
@@ -2949,10 +2832,10 @@
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <f t="shared" si="3"/>
-        <v>388</v>
+        <v>517</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E131">
         <f ca="1"/>
@@ -2966,10 +2849,10 @@
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <f t="shared" ref="A132:A195" si="5">A131+C131</f>
-        <v>391</v>
+        <v>521</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132">
         <f ca="1"/>
@@ -2983,10 +2866,10 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <f t="shared" si="5"/>
-        <v>394</v>
+        <v>525</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133">
         <f ca="1"/>
@@ -3000,10 +2883,10 @@
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <f t="shared" si="5"/>
-        <v>397</v>
+        <v>529</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134">
         <f ca="1"/>
@@ -3017,10 +2900,10 @@
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E135">
         <f ca="1"/>
@@ -3034,10 +2917,10 @@
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <f t="shared" si="5"/>
-        <v>403</v>
+        <v>537</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E136">
         <f ca="1"/>
@@ -3051,10 +2934,10 @@
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <f t="shared" si="5"/>
-        <v>406</v>
+        <v>541</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E137">
         <f ca="1"/>
@@ -3068,10 +2951,10 @@
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <f t="shared" si="5"/>
-        <v>409</v>
+        <v>545</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E138">
         <f ca="1"/>
@@ -3085,10 +2968,10 @@
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <f t="shared" si="5"/>
-        <v>412</v>
+        <v>549</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E139">
         <f ca="1"/>
@@ -3102,10 +2985,10 @@
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <f t="shared" si="5"/>
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E140">
         <f ca="1"/>
@@ -3119,10 +3002,10 @@
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <f t="shared" si="5"/>
-        <v>418</v>
+        <v>557</v>
       </c>
       <c r="C141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E141">
         <f ca="1"/>
@@ -3136,10 +3019,10 @@
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <f t="shared" si="5"/>
-        <v>421</v>
+        <v>561</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E142">
         <f ca="1"/>
@@ -3153,10 +3036,10 @@
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <f t="shared" si="5"/>
-        <v>424</v>
+        <v>565</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E143">
         <f ca="1"/>
@@ -3170,10 +3053,10 @@
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <f t="shared" si="5"/>
-        <v>427</v>
+        <v>569</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E144">
         <f ca="1"/>
@@ -3187,10 +3070,10 @@
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <f t="shared" si="5"/>
-        <v>430</v>
+        <v>573</v>
       </c>
       <c r="C145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E145">
         <f ca="1"/>
@@ -3204,10 +3087,10 @@
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <f t="shared" si="5"/>
-        <v>433</v>
+        <v>577</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E146">
         <f ca="1"/>
@@ -3221,10 +3104,10 @@
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <f t="shared" si="5"/>
-        <v>436</v>
+        <v>581</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E147">
         <f ca="1"/>
@@ -3238,10 +3121,10 @@
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <f t="shared" si="5"/>
-        <v>439</v>
+        <v>585</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E148">
         <f ca="1"/>
@@ -3255,10 +3138,10 @@
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <f t="shared" si="5"/>
-        <v>442</v>
+        <v>589</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E149">
         <f ca="1"/>
@@ -3272,10 +3155,10 @@
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <f t="shared" si="5"/>
-        <v>445</v>
+        <v>593</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E150">
         <f ca="1"/>
@@ -3289,10 +3172,10 @@
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <f t="shared" si="5"/>
-        <v>448</v>
+        <v>597</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E151">
         <f ca="1"/>
@@ -3306,10 +3189,10 @@
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <f t="shared" si="5"/>
-        <v>451</v>
+        <v>601</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152">
         <f ca="1"/>
@@ -3323,10 +3206,10 @@
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <f t="shared" si="5"/>
-        <v>454</v>
+        <v>605</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E153">
         <f ca="1"/>
@@ -3340,10 +3223,10 @@
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <f t="shared" si="5"/>
-        <v>457</v>
+        <v>609</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E154">
         <f ca="1"/>
@@ -3357,10 +3240,10 @@
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <f t="shared" si="5"/>
-        <v>460</v>
+        <v>613</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E155">
         <f ca="1"/>
@@ -3374,10 +3257,10 @@
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <f t="shared" si="5"/>
-        <v>463</v>
+        <v>617</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E156">
         <f ca="1"/>
@@ -3391,10 +3274,10 @@
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <f t="shared" si="5"/>
-        <v>466</v>
+        <v>621</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E157">
         <f ca="1"/>
@@ -3408,10 +3291,10 @@
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <f t="shared" si="5"/>
-        <v>469</v>
+        <v>625</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E158">
         <f ca="1"/>
@@ -3425,10 +3308,10 @@
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <f t="shared" si="5"/>
-        <v>472</v>
+        <v>629</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E159">
         <f ca="1"/>
@@ -3442,10 +3325,10 @@
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <f t="shared" si="5"/>
-        <v>475</v>
+        <v>633</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E160">
         <f ca="1"/>
@@ -3459,10 +3342,10 @@
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <f t="shared" si="5"/>
-        <v>478</v>
+        <v>637</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E161">
         <f ca="1"/>
@@ -3476,10 +3359,10 @@
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <f t="shared" si="5"/>
-        <v>481</v>
+        <v>641</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E162">
         <f ca="1"/>
@@ -3493,10 +3376,10 @@
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <f t="shared" si="5"/>
-        <v>484</v>
+        <v>645</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E163">
         <f ca="1"/>
@@ -3510,10 +3393,10 @@
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <f t="shared" si="5"/>
-        <v>487</v>
+        <v>649</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E164">
         <f ca="1"/>
@@ -3527,10 +3410,10 @@
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <f t="shared" si="5"/>
-        <v>490</v>
+        <v>653</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E165">
         <f ca="1"/>
@@ -3544,10 +3427,10 @@
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <f t="shared" si="5"/>
-        <v>493</v>
+        <v>657</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E166">
         <f ca="1"/>
@@ -3561,10 +3444,10 @@
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <f t="shared" si="5"/>
-        <v>496</v>
+        <v>661</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E167">
         <f ca="1"/>
@@ -3578,10 +3461,10 @@
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <f t="shared" si="5"/>
-        <v>499</v>
+        <v>665</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E168">
         <f ca="1"/>
@@ -3595,10 +3478,10 @@
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <f t="shared" si="5"/>
-        <v>502</v>
+        <v>669</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E169">
         <f ca="1"/>
@@ -3612,10 +3495,10 @@
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <f t="shared" si="5"/>
-        <v>505</v>
+        <v>673</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E170">
         <f ca="1"/>
@@ -3629,10 +3512,10 @@
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <f t="shared" si="5"/>
-        <v>508</v>
+        <v>677</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E171">
         <f ca="1"/>
@@ -3646,10 +3529,10 @@
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <f t="shared" si="5"/>
-        <v>511</v>
+        <v>681</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E172">
         <f ca="1"/>
@@ -3663,10 +3546,10 @@
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <f t="shared" si="5"/>
-        <v>514</v>
+        <v>685</v>
       </c>
       <c r="C173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E173">
         <f ca="1"/>
@@ -3680,10 +3563,10 @@
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <f t="shared" si="5"/>
-        <v>517</v>
+        <v>689</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E174">
         <f ca="1"/>
@@ -3697,10 +3580,10 @@
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <f t="shared" si="5"/>
-        <v>520</v>
+        <v>693</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E175">
         <f ca="1"/>
@@ -3714,10 +3597,10 @@
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <f t="shared" si="5"/>
-        <v>523</v>
+        <v>697</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E176">
         <f ca="1"/>
@@ -3731,10 +3614,10 @@
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <f t="shared" si="5"/>
-        <v>526</v>
+        <v>701</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E177">
         <f ca="1"/>
@@ -3748,10 +3631,10 @@
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <f t="shared" si="5"/>
-        <v>529</v>
+        <v>705</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E178">
         <f ca="1"/>
@@ -3765,10 +3648,10 @@
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <f t="shared" si="5"/>
-        <v>532</v>
+        <v>709</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E179">
         <f ca="1"/>
@@ -3782,10 +3665,10 @@
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <f t="shared" si="5"/>
-        <v>535</v>
+        <v>713</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E180">
         <f ca="1"/>
@@ -3799,10 +3682,10 @@
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <f t="shared" si="5"/>
-        <v>538</v>
+        <v>717</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E181">
         <f ca="1"/>
@@ -3816,10 +3699,10 @@
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <f t="shared" si="5"/>
-        <v>541</v>
+        <v>721</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E182">
         <f ca="1"/>
@@ -3833,10 +3716,10 @@
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <f t="shared" si="5"/>
-        <v>544</v>
+        <v>725</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E183">
         <f ca="1"/>
@@ -3850,10 +3733,10 @@
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <f t="shared" si="5"/>
-        <v>547</v>
+        <v>729</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E184">
         <f ca="1"/>
@@ -3867,10 +3750,10 @@
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <f t="shared" si="5"/>
-        <v>550</v>
+        <v>733</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E185">
         <f ca="1"/>
@@ -3884,10 +3767,10 @@
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <f t="shared" si="5"/>
-        <v>553</v>
+        <v>737</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E186">
         <f ca="1"/>
@@ -3901,10 +3784,10 @@
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <f t="shared" si="5"/>
-        <v>556</v>
+        <v>741</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E187">
         <f ca="1"/>
@@ -3918,10 +3801,10 @@
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <f t="shared" si="5"/>
-        <v>559</v>
+        <v>745</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E188">
         <f ca="1"/>
@@ -3935,10 +3818,10 @@
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <f t="shared" si="5"/>
-        <v>562</v>
+        <v>749</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E189">
         <f ca="1"/>
@@ -3952,10 +3835,10 @@
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <f t="shared" si="5"/>
-        <v>565</v>
+        <v>753</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E190">
         <f ca="1"/>
@@ -3969,10 +3852,10 @@
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <f t="shared" si="5"/>
-        <v>568</v>
+        <v>757</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E191">
         <f ca="1"/>
@@ -3986,10 +3869,10 @@
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <f t="shared" si="5"/>
-        <v>571</v>
+        <v>761</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E192">
         <f ca="1"/>
@@ -4003,10 +3886,10 @@
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <f t="shared" si="5"/>
-        <v>574</v>
+        <v>765</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E193">
         <f ca="1"/>
@@ -4020,10 +3903,10 @@
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <f t="shared" si="5"/>
-        <v>577</v>
+        <v>769</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E194">
         <f ca="1"/>
@@ -4037,10 +3920,10 @@
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <f t="shared" si="5"/>
-        <v>580</v>
+        <v>773</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E195">
         <f ca="1"/>
@@ -4054,10 +3937,10 @@
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <f t="shared" ref="A196:A252" si="7">A195+C195</f>
-        <v>583</v>
+        <v>777</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E196">
         <f ca="1"/>
@@ -4071,10 +3954,10 @@
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <f t="shared" si="7"/>
-        <v>586</v>
+        <v>781</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E197">
         <f ca="1"/>
@@ -4088,10 +3971,10 @@
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <f t="shared" si="7"/>
-        <v>589</v>
+        <v>785</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E198">
         <f ca="1"/>
@@ -4105,10 +3988,10 @@
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <f t="shared" si="7"/>
-        <v>592</v>
+        <v>789</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E199">
         <f ca="1"/>
@@ -4122,10 +4005,10 @@
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <f t="shared" si="7"/>
-        <v>595</v>
+        <v>793</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E200">
         <f ca="1"/>
@@ -4139,10 +4022,10 @@
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <f t="shared" si="7"/>
-        <v>598</v>
+        <v>797</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E201">
         <f ca="1"/>
@@ -4156,10 +4039,10 @@
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <f t="shared" si="7"/>
-        <v>601</v>
+        <v>801</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E202">
         <f ca="1"/>
@@ -4173,10 +4056,10 @@
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <f t="shared" si="7"/>
-        <v>604</v>
+        <v>805</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203">
         <f ca="1"/>
@@ -4190,10 +4073,10 @@
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <f t="shared" si="7"/>
-        <v>607</v>
+        <v>809</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E204">
         <f ca="1"/>
@@ -4207,10 +4090,10 @@
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <f t="shared" si="7"/>
-        <v>610</v>
+        <v>813</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E205">
         <f ca="1"/>
@@ -4224,10 +4107,10 @@
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <f t="shared" si="7"/>
-        <v>613</v>
+        <v>817</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E206">
         <f ca="1"/>
@@ -4241,10 +4124,10 @@
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <f t="shared" si="7"/>
-        <v>616</v>
+        <v>821</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E207">
         <f ca="1"/>
@@ -4258,10 +4141,10 @@
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <f t="shared" si="7"/>
-        <v>619</v>
+        <v>825</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E208">
         <f ca="1"/>
@@ -4275,10 +4158,10 @@
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <f t="shared" si="7"/>
-        <v>622</v>
+        <v>829</v>
       </c>
       <c r="C209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E209">
         <f ca="1"/>
@@ -4292,10 +4175,10 @@
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <f t="shared" si="7"/>
-        <v>625</v>
+        <v>833</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E210">
         <f ca="1"/>
@@ -4309,10 +4192,10 @@
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <f t="shared" si="7"/>
-        <v>628</v>
+        <v>837</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E211">
         <f ca="1"/>
@@ -4326,10 +4209,10 @@
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <f t="shared" si="7"/>
-        <v>631</v>
+        <v>841</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E212">
         <f ca="1"/>
@@ -4343,10 +4226,10 @@
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <f t="shared" si="7"/>
-        <v>634</v>
+        <v>845</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E213">
         <f ca="1"/>
@@ -4360,10 +4243,10 @@
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <f t="shared" si="7"/>
-        <v>637</v>
+        <v>849</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E214">
         <f ca="1"/>
@@ -4377,10 +4260,10 @@
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <f t="shared" si="7"/>
-        <v>640</v>
+        <v>853</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E215">
         <f ca="1"/>
@@ -4394,10 +4277,10 @@
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <f t="shared" si="7"/>
-        <v>643</v>
+        <v>857</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E216">
         <f ca="1"/>
@@ -4411,10 +4294,10 @@
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <f t="shared" si="7"/>
-        <v>646</v>
+        <v>861</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E217">
         <f ca="1"/>
@@ -4428,10 +4311,10 @@
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <f t="shared" si="7"/>
-        <v>649</v>
+        <v>865</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E218">
         <f ca="1"/>
@@ -4445,10 +4328,10 @@
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <f t="shared" si="7"/>
-        <v>652</v>
+        <v>869</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E219">
         <f ca="1"/>
@@ -4462,10 +4345,10 @@
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <f t="shared" si="7"/>
-        <v>655</v>
+        <v>873</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E220">
         <f ca="1"/>
@@ -4479,10 +4362,10 @@
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <f t="shared" si="7"/>
-        <v>658</v>
+        <v>877</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E221">
         <f ca="1"/>
@@ -4496,10 +4379,10 @@
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <f t="shared" si="7"/>
-        <v>661</v>
+        <v>881</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E222">
         <f ca="1"/>
@@ -4513,10 +4396,10 @@
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <f t="shared" si="7"/>
-        <v>664</v>
+        <v>885</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E223">
         <f ca="1"/>
@@ -4530,10 +4413,10 @@
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <f t="shared" si="7"/>
-        <v>667</v>
+        <v>889</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E224">
         <f ca="1"/>
@@ -4547,10 +4430,10 @@
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <f t="shared" si="7"/>
-        <v>670</v>
+        <v>893</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E225">
         <f ca="1"/>
@@ -4564,10 +4447,10 @@
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <f t="shared" si="7"/>
-        <v>673</v>
+        <v>897</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E226">
         <f ca="1"/>
@@ -4581,10 +4464,10 @@
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <f t="shared" si="7"/>
-        <v>676</v>
+        <v>901</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E227">
         <f ca="1"/>
@@ -4598,10 +4481,10 @@
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <f t="shared" si="7"/>
-        <v>679</v>
+        <v>905</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E228">
         <f ca="1"/>
@@ -4615,10 +4498,10 @@
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <f t="shared" si="7"/>
-        <v>682</v>
+        <v>909</v>
       </c>
       <c r="C229">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E229">
         <f ca="1"/>
@@ -4632,10 +4515,10 @@
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <f t="shared" si="7"/>
-        <v>685</v>
+        <v>913</v>
       </c>
       <c r="C230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E230">
         <f ca="1"/>
@@ -4649,10 +4532,10 @@
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <f t="shared" si="7"/>
-        <v>688</v>
+        <v>917</v>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E231">
         <f ca="1"/>
@@ -4666,10 +4549,10 @@
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <f t="shared" si="7"/>
-        <v>691</v>
+        <v>921</v>
       </c>
       <c r="C232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E232">
         <f ca="1"/>
@@ -4683,10 +4566,10 @@
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <f t="shared" si="7"/>
-        <v>694</v>
+        <v>925</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E233">
         <f ca="1"/>
@@ -4700,10 +4583,10 @@
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <f t="shared" si="7"/>
-        <v>697</v>
+        <v>929</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E234">
         <f ca="1"/>
@@ -4717,10 +4600,10 @@
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <f t="shared" si="7"/>
-        <v>700</v>
+        <v>933</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E235">
         <f ca="1"/>
@@ -4734,10 +4617,10 @@
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <f t="shared" si="7"/>
-        <v>703</v>
+        <v>937</v>
       </c>
       <c r="C236">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E236">
         <f ca="1"/>
@@ -4751,10 +4634,10 @@
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <f t="shared" si="7"/>
-        <v>706</v>
+        <v>941</v>
       </c>
       <c r="C237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E237">
         <f ca="1"/>
@@ -4768,10 +4651,10 @@
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <f t="shared" si="7"/>
-        <v>709</v>
+        <v>945</v>
       </c>
       <c r="C238">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E238">
         <f ca="1"/>
@@ -4785,10 +4668,10 @@
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <f t="shared" si="7"/>
-        <v>712</v>
+        <v>949</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E239">
         <f ca="1"/>
@@ -4802,10 +4685,10 @@
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <f t="shared" si="7"/>
-        <v>715</v>
+        <v>953</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E240">
         <f ca="1"/>
@@ -4819,10 +4702,10 @@
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <f t="shared" si="7"/>
-        <v>718</v>
+        <v>957</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E241">
         <f ca="1"/>
@@ -4836,10 +4719,10 @@
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <f t="shared" si="7"/>
-        <v>721</v>
+        <v>961</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E242">
         <f ca="1"/>
@@ -4853,10 +4736,10 @@
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <f t="shared" si="7"/>
-        <v>724</v>
+        <v>965</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E243">
         <f ca="1"/>
@@ -4870,10 +4753,10 @@
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <f t="shared" si="7"/>
-        <v>727</v>
+        <v>969</v>
       </c>
       <c r="C244">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E244">
         <f ca="1"/>
@@ -4887,10 +4770,10 @@
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <f t="shared" si="7"/>
-        <v>730</v>
+        <v>973</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E245">
         <f ca="1"/>
@@ -4904,10 +4787,10 @@
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <f t="shared" si="7"/>
-        <v>733</v>
+        <v>977</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E246">
         <f ca="1"/>
@@ -4921,10 +4804,10 @@
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <f t="shared" si="7"/>
-        <v>736</v>
+        <v>981</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E247">
         <f ca="1"/>
@@ -4938,10 +4821,10 @@
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <f t="shared" si="7"/>
-        <v>739</v>
+        <v>985</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E248">
         <f ca="1"/>
@@ -4955,10 +4838,10 @@
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <f t="shared" si="7"/>
-        <v>742</v>
+        <v>989</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E249">
         <f ca="1"/>
@@ -4972,10 +4855,10 @@
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <f t="shared" si="7"/>
-        <v>745</v>
+        <v>993</v>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E250">
         <f ca="1"/>
@@ -4989,10 +4872,10 @@
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <f t="shared" si="7"/>
-        <v>748</v>
+        <v>997</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E251">
         <f ca="1"/>
@@ -5006,10 +4889,10 @@
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <f t="shared" si="7"/>
-        <v>751</v>
+        <v>1001</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E252">
         <f ca="1"/>
@@ -10522,1752 +10405,2752 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
-      <c r="F753" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E753">
+        <f ca="1"/>
+        <v>752</v>
+      </c>
+      <c r="F753">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
-      <c r="F754" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E754">
+        <f ca="1"/>
+        <v>753</v>
+      </c>
+      <c r="F754">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
-      <c r="F755" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E755">
+        <f ca="1"/>
+        <v>754</v>
+      </c>
+      <c r="F755">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
-      <c r="F756" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E756">
+        <f ca="1"/>
+        <v>755</v>
+      </c>
+      <c r="F756">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
-      <c r="F757" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E757">
+        <f ca="1"/>
+        <v>756</v>
+      </c>
+      <c r="F757">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
-      <c r="F758" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E758">
+        <f ca="1"/>
+        <v>757</v>
+      </c>
+      <c r="F758">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
-      <c r="F759" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E759">
+        <f ca="1"/>
+        <v>758</v>
+      </c>
+      <c r="F759">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
-      <c r="F760" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E760">
+        <f ca="1"/>
+        <v>759</v>
+      </c>
+      <c r="F760">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
-      <c r="F761" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E761">
+        <f ca="1"/>
+        <v>760</v>
+      </c>
+      <c r="F761">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
-      <c r="F762" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E762">
+        <f ca="1"/>
+        <v>761</v>
+      </c>
+      <c r="F762">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
-      <c r="F763" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E763">
+        <f ca="1"/>
+        <v>762</v>
+      </c>
+      <c r="F763">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
-      <c r="F764" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E764">
+        <f ca="1"/>
+        <v>763</v>
+      </c>
+      <c r="F764">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
-      <c r="F765" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E765">
+        <f ca="1"/>
+        <v>764</v>
+      </c>
+      <c r="F765">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
-      <c r="F766" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E766">
+        <f ca="1"/>
+        <v>765</v>
+      </c>
+      <c r="F766">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
-      <c r="F767" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E767">
+        <f ca="1"/>
+        <v>766</v>
+      </c>
+      <c r="F767">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
-      <c r="F768" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E768">
+        <f ca="1"/>
+        <v>767</v>
+      </c>
+      <c r="F768">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
-      <c r="F769" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E769">
+        <f ca="1"/>
+        <v>768</v>
+      </c>
+      <c r="F769">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
-      <c r="F770" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
+      <c r="E770">
+        <f ca="1"/>
+        <v>769</v>
+      </c>
+      <c r="F770">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
-      <c r="F771" t="e">
-        <f t="shared" ref="F771:F834" si="16">VLOOKUP(E771,$A$2:$B$978,2)</f>
-        <v>#N/A</v>
+      <c r="E771">
+        <f ca="1"/>
+        <v>770</v>
+      </c>
+      <c r="F771">
+        <f t="shared" ref="F771:F834" ca="1" si="16">VLOOKUP(E771,$A$2:$B$978,2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
-      <c r="F772" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E772">
+        <f ca="1"/>
+        <v>771</v>
+      </c>
+      <c r="F772">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
-      <c r="F773" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E773">
+        <f ca="1"/>
+        <v>772</v>
+      </c>
+      <c r="F773">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
-      <c r="F774" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E774">
+        <f ca="1"/>
+        <v>773</v>
+      </c>
+      <c r="F774">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A775" s="2"/>
-      <c r="F775" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E775">
+        <f ca="1"/>
+        <v>774</v>
+      </c>
+      <c r="F775">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776" s="2"/>
-      <c r="F776" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E776">
+        <f ca="1"/>
+        <v>775</v>
+      </c>
+      <c r="F776">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
-      <c r="F777" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E777">
+        <f ca="1"/>
+        <v>776</v>
+      </c>
+      <c r="F777">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
-      <c r="F778" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E778">
+        <f ca="1"/>
+        <v>777</v>
+      </c>
+      <c r="F778">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779" s="2"/>
-      <c r="F779" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E779">
+        <f ca="1"/>
+        <v>778</v>
+      </c>
+      <c r="F779">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
-      <c r="F780" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E780">
+        <f ca="1"/>
+        <v>779</v>
+      </c>
+      <c r="F780">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
-      <c r="F781" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E781">
+        <f ca="1"/>
+        <v>780</v>
+      </c>
+      <c r="F781">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A782" s="2"/>
-      <c r="F782" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E782">
+        <f ca="1"/>
+        <v>781</v>
+      </c>
+      <c r="F782">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A783" s="2"/>
-      <c r="F783" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E783">
+        <f ca="1"/>
+        <v>782</v>
+      </c>
+      <c r="F783">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
-      <c r="F784" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E784">
+        <f ca="1"/>
+        <v>783</v>
+      </c>
+      <c r="F784">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
-      <c r="F785" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E785">
+        <f ca="1"/>
+        <v>784</v>
+      </c>
+      <c r="F785">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A786" s="2"/>
-      <c r="F786" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E786">
+        <f ca="1"/>
+        <v>785</v>
+      </c>
+      <c r="F786">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
-      <c r="F787" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E787">
+        <f ca="1"/>
+        <v>786</v>
+      </c>
+      <c r="F787">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A788" s="2"/>
-      <c r="F788" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E788">
+        <f ca="1"/>
+        <v>787</v>
+      </c>
+      <c r="F788">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
-      <c r="F789" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E789">
+        <f ca="1"/>
+        <v>788</v>
+      </c>
+      <c r="F789">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A790" s="2"/>
-      <c r="F790" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E790">
+        <f ca="1"/>
+        <v>789</v>
+      </c>
+      <c r="F790">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A791" s="2"/>
-      <c r="F791" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E791">
+        <f ca="1"/>
+        <v>790</v>
+      </c>
+      <c r="F791">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792" s="2"/>
-      <c r="F792" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E792">
+        <f ca="1"/>
+        <v>791</v>
+      </c>
+      <c r="F792">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
-      <c r="F793" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E793">
+        <f ca="1"/>
+        <v>792</v>
+      </c>
+      <c r="F793">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
-      <c r="F794" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E794">
+        <f ca="1"/>
+        <v>793</v>
+      </c>
+      <c r="F794">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795" s="2"/>
-      <c r="F795" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E795">
+        <f ca="1"/>
+        <v>794</v>
+      </c>
+      <c r="F795">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
-      <c r="F796" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E796">
+        <f ca="1"/>
+        <v>795</v>
+      </c>
+      <c r="F796">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
-      <c r="F797" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E797">
+        <f ca="1"/>
+        <v>796</v>
+      </c>
+      <c r="F797">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A798" s="2"/>
-      <c r="F798" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E798">
+        <f ca="1"/>
+        <v>797</v>
+      </c>
+      <c r="F798">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
-      <c r="F799" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E799">
+        <f ca="1"/>
+        <v>798</v>
+      </c>
+      <c r="F799">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A800" s="2"/>
-      <c r="F800" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E800">
+        <f ca="1"/>
+        <v>799</v>
+      </c>
+      <c r="F800">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A801" s="2"/>
-      <c r="F801" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E801">
+        <f ca="1"/>
+        <v>800</v>
+      </c>
+      <c r="F801">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A802" s="2"/>
-      <c r="F802" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E802">
+        <f ca="1"/>
+        <v>801</v>
+      </c>
+      <c r="F802">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A803" s="2"/>
-      <c r="F803" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E803">
+        <f ca="1"/>
+        <v>802</v>
+      </c>
+      <c r="F803">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A804" s="2"/>
-      <c r="F804" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E804">
+        <f ca="1"/>
+        <v>803</v>
+      </c>
+      <c r="F804">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A805" s="2"/>
-      <c r="F805" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E805">
+        <f ca="1"/>
+        <v>804</v>
+      </c>
+      <c r="F805">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A806" s="2"/>
-      <c r="F806" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E806">
+        <f ca="1"/>
+        <v>805</v>
+      </c>
+      <c r="F806">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A807" s="2"/>
-      <c r="F807" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E807">
+        <f ca="1"/>
+        <v>806</v>
+      </c>
+      <c r="F807">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A808" s="2"/>
-      <c r="F808" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E808">
+        <f ca="1"/>
+        <v>807</v>
+      </c>
+      <c r="F808">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A809" s="2"/>
-      <c r="F809" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E809">
+        <f ca="1"/>
+        <v>808</v>
+      </c>
+      <c r="F809">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
-      <c r="F810" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E810">
+        <f ca="1"/>
+        <v>809</v>
+      </c>
+      <c r="F810">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A811" s="2"/>
-      <c r="F811" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E811">
+        <f ca="1"/>
+        <v>810</v>
+      </c>
+      <c r="F811">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A812" s="2"/>
-      <c r="F812" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E812">
+        <f ca="1"/>
+        <v>811</v>
+      </c>
+      <c r="F812">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A813" s="2"/>
-      <c r="F813" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E813">
+        <f ca="1"/>
+        <v>812</v>
+      </c>
+      <c r="F813">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A814" s="2"/>
-      <c r="F814" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E814">
+        <f ca="1"/>
+        <v>813</v>
+      </c>
+      <c r="F814">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
-      <c r="F815" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E815">
+        <f ca="1"/>
+        <v>814</v>
+      </c>
+      <c r="F815">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
-      <c r="F816" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E816">
+        <f ca="1"/>
+        <v>815</v>
+      </c>
+      <c r="F816">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817" s="2"/>
-      <c r="F817" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E817">
+        <f ca="1"/>
+        <v>816</v>
+      </c>
+      <c r="F817">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
-      <c r="F818" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E818">
+        <f ca="1"/>
+        <v>817</v>
+      </c>
+      <c r="F818">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A819" s="2"/>
-      <c r="F819" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E819">
+        <f ca="1"/>
+        <v>818</v>
+      </c>
+      <c r="F819">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
-      <c r="F820" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E820">
+        <f ca="1"/>
+        <v>819</v>
+      </c>
+      <c r="F820">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A821" s="2"/>
-      <c r="F821" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E821">
+        <f ca="1"/>
+        <v>820</v>
+      </c>
+      <c r="F821">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A822" s="2"/>
-      <c r="F822" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E822">
+        <f ca="1"/>
+        <v>821</v>
+      </c>
+      <c r="F822">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A823" s="2"/>
-      <c r="F823" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E823">
+        <f ca="1"/>
+        <v>822</v>
+      </c>
+      <c r="F823">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
-      <c r="F824" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E824">
+        <f ca="1"/>
+        <v>823</v>
+      </c>
+      <c r="F824">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
-      <c r="F825" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E825">
+        <f ca="1"/>
+        <v>824</v>
+      </c>
+      <c r="F825">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A826" s="2"/>
-      <c r="F826" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E826">
+        <f ca="1"/>
+        <v>825</v>
+      </c>
+      <c r="F826">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
-      <c r="F827" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E827">
+        <f ca="1"/>
+        <v>826</v>
+      </c>
+      <c r="F827">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
-      <c r="F828" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E828">
+        <f ca="1"/>
+        <v>827</v>
+      </c>
+      <c r="F828">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A829" s="2"/>
-      <c r="F829" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E829">
+        <f ca="1"/>
+        <v>828</v>
+      </c>
+      <c r="F829">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A830" s="2"/>
-      <c r="F830" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E830">
+        <f ca="1"/>
+        <v>829</v>
+      </c>
+      <c r="F830">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A831" s="2"/>
-      <c r="F831" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E831">
+        <f ca="1"/>
+        <v>830</v>
+      </c>
+      <c r="F831">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A832" s="2"/>
-      <c r="F832" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E832">
+        <f ca="1"/>
+        <v>831</v>
+      </c>
+      <c r="F832">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
-      <c r="F833" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E833">
+        <f ca="1"/>
+        <v>832</v>
+      </c>
+      <c r="F833">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A834" s="2"/>
-      <c r="F834" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
+      <c r="E834">
+        <f ca="1"/>
+        <v>833</v>
+      </c>
+      <c r="F834">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A835" s="2"/>
-      <c r="F835" t="e">
-        <f t="shared" ref="F835:F898" si="17">VLOOKUP(E835,$A$2:$B$978,2)</f>
-        <v>#N/A</v>
+      <c r="E835">
+        <f ca="1"/>
+        <v>834</v>
+      </c>
+      <c r="F835">
+        <f t="shared" ref="F835:F898" ca="1" si="17">VLOOKUP(E835,$A$2:$B$978,2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A836" s="2"/>
-      <c r="F836" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E836">
+        <f ca="1"/>
+        <v>835</v>
+      </c>
+      <c r="F836">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A837" s="2"/>
-      <c r="F837" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E837">
+        <f ca="1"/>
+        <v>836</v>
+      </c>
+      <c r="F837">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A838" s="2"/>
-      <c r="F838" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E838">
+        <f ca="1"/>
+        <v>837</v>
+      </c>
+      <c r="F838">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A839" s="2"/>
-      <c r="F839" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E839">
+        <f ca="1"/>
+        <v>838</v>
+      </c>
+      <c r="F839">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
-      <c r="F840" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E840">
+        <f ca="1"/>
+        <v>839</v>
+      </c>
+      <c r="F840">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A841" s="2"/>
-      <c r="F841" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E841">
+        <f ca="1"/>
+        <v>840</v>
+      </c>
+      <c r="F841">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A842" s="2"/>
-      <c r="F842" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E842">
+        <f ca="1"/>
+        <v>841</v>
+      </c>
+      <c r="F842">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A843" s="2"/>
-      <c r="F843" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E843">
+        <f ca="1"/>
+        <v>842</v>
+      </c>
+      <c r="F843">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A844" s="2"/>
-      <c r="F844" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E844">
+        <f ca="1"/>
+        <v>843</v>
+      </c>
+      <c r="F844">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A845" s="2"/>
-      <c r="F845" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E845">
+        <f ca="1"/>
+        <v>844</v>
+      </c>
+      <c r="F845">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A846" s="2"/>
-      <c r="F846" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E846">
+        <f ca="1"/>
+        <v>845</v>
+      </c>
+      <c r="F846">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A847" s="2"/>
-      <c r="F847" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E847">
+        <f ca="1"/>
+        <v>846</v>
+      </c>
+      <c r="F847">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A848" s="2"/>
-      <c r="F848" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E848">
+        <f ca="1"/>
+        <v>847</v>
+      </c>
+      <c r="F848">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A849" s="2"/>
-      <c r="F849" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E849">
+        <f ca="1"/>
+        <v>848</v>
+      </c>
+      <c r="F849">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A850" s="2"/>
-      <c r="F850" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E850">
+        <f ca="1"/>
+        <v>849</v>
+      </c>
+      <c r="F850">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A851" s="2"/>
-      <c r="F851" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E851">
+        <f ca="1"/>
+        <v>850</v>
+      </c>
+      <c r="F851">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A852" s="2"/>
-      <c r="F852" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E852">
+        <f ca="1"/>
+        <v>851</v>
+      </c>
+      <c r="F852">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A853" s="2"/>
-      <c r="F853" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E853">
+        <f ca="1"/>
+        <v>852</v>
+      </c>
+      <c r="F853">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A854" s="2"/>
-      <c r="F854" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E854">
+        <f ca="1"/>
+        <v>853</v>
+      </c>
+      <c r="F854">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A855" s="2"/>
-      <c r="F855" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E855">
+        <f ca="1"/>
+        <v>854</v>
+      </c>
+      <c r="F855">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A856" s="2"/>
-      <c r="F856" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E856">
+        <f ca="1"/>
+        <v>855</v>
+      </c>
+      <c r="F856">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A857" s="2"/>
-      <c r="F857" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E857">
+        <f ca="1"/>
+        <v>856</v>
+      </c>
+      <c r="F857">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A858" s="2"/>
-      <c r="F858" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E858">
+        <f ca="1"/>
+        <v>857</v>
+      </c>
+      <c r="F858">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A859" s="2"/>
-      <c r="F859" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E859">
+        <f ca="1"/>
+        <v>858</v>
+      </c>
+      <c r="F859">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A860" s="2"/>
-      <c r="F860" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E860">
+        <f ca="1"/>
+        <v>859</v>
+      </c>
+      <c r="F860">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A861" s="2"/>
-      <c r="F861" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E861">
+        <f ca="1"/>
+        <v>860</v>
+      </c>
+      <c r="F861">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A862" s="2"/>
-      <c r="F862" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E862">
+        <f ca="1"/>
+        <v>861</v>
+      </c>
+      <c r="F862">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A863" s="2"/>
-      <c r="F863" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E863">
+        <f ca="1"/>
+        <v>862</v>
+      </c>
+      <c r="F863">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A864" s="2"/>
-      <c r="F864" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E864">
+        <f ca="1"/>
+        <v>863</v>
+      </c>
+      <c r="F864">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A865" s="2"/>
-      <c r="F865" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E865">
+        <f ca="1"/>
+        <v>864</v>
+      </c>
+      <c r="F865">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A866" s="2"/>
-      <c r="F866" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E866">
+        <f ca="1"/>
+        <v>865</v>
+      </c>
+      <c r="F866">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A867" s="2"/>
-      <c r="F867" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E867">
+        <f ca="1"/>
+        <v>866</v>
+      </c>
+      <c r="F867">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A868" s="2"/>
-      <c r="F868" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E868">
+        <f ca="1"/>
+        <v>867</v>
+      </c>
+      <c r="F868">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A869" s="2"/>
-      <c r="F869" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E869">
+        <f ca="1"/>
+        <v>868</v>
+      </c>
+      <c r="F869">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A870" s="2"/>
-      <c r="F870" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E870">
+        <f ca="1"/>
+        <v>869</v>
+      </c>
+      <c r="F870">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A871" s="2"/>
-      <c r="F871" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E871">
+        <f ca="1"/>
+        <v>870</v>
+      </c>
+      <c r="F871">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A872" s="2"/>
-      <c r="F872" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E872">
+        <f ca="1"/>
+        <v>871</v>
+      </c>
+      <c r="F872">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A873" s="2"/>
-      <c r="F873" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E873">
+        <f ca="1"/>
+        <v>872</v>
+      </c>
+      <c r="F873">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A874" s="2"/>
-      <c r="F874" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E874">
+        <f ca="1"/>
+        <v>873</v>
+      </c>
+      <c r="F874">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A875" s="2"/>
-      <c r="F875" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E875">
+        <f ca="1"/>
+        <v>874</v>
+      </c>
+      <c r="F875">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A876" s="2"/>
-      <c r="F876" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E876">
+        <f ca="1"/>
+        <v>875</v>
+      </c>
+      <c r="F876">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A877" s="2"/>
-      <c r="F877" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E877">
+        <f ca="1"/>
+        <v>876</v>
+      </c>
+      <c r="F877">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A878" s="2"/>
-      <c r="F878" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E878">
+        <f ca="1"/>
+        <v>877</v>
+      </c>
+      <c r="F878">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A879" s="2"/>
-      <c r="F879" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E879">
+        <f ca="1"/>
+        <v>878</v>
+      </c>
+      <c r="F879">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A880" s="2"/>
-      <c r="F880" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E880">
+        <f ca="1"/>
+        <v>879</v>
+      </c>
+      <c r="F880">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A881" s="2"/>
-      <c r="F881" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E881">
+        <f ca="1"/>
+        <v>880</v>
+      </c>
+      <c r="F881">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A882" s="2"/>
-      <c r="F882" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E882">
+        <f ca="1"/>
+        <v>881</v>
+      </c>
+      <c r="F882">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A883" s="2"/>
-      <c r="F883" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E883">
+        <f ca="1"/>
+        <v>882</v>
+      </c>
+      <c r="F883">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A884" s="2"/>
-      <c r="F884" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E884">
+        <f ca="1"/>
+        <v>883</v>
+      </c>
+      <c r="F884">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A885" s="2"/>
-      <c r="F885" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E885">
+        <f ca="1"/>
+        <v>884</v>
+      </c>
+      <c r="F885">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A886" s="2"/>
-      <c r="F886" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E886">
+        <f ca="1"/>
+        <v>885</v>
+      </c>
+      <c r="F886">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A887" s="2"/>
-      <c r="F887" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E887">
+        <f ca="1"/>
+        <v>886</v>
+      </c>
+      <c r="F887">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A888" s="2"/>
-      <c r="F888" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E888">
+        <f ca="1"/>
+        <v>887</v>
+      </c>
+      <c r="F888">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A889" s="2"/>
-      <c r="F889" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E889">
+        <f ca="1"/>
+        <v>888</v>
+      </c>
+      <c r="F889">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A890" s="2"/>
-      <c r="F890" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E890">
+        <f ca="1"/>
+        <v>889</v>
+      </c>
+      <c r="F890">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A891" s="2"/>
-      <c r="F891" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E891">
+        <f ca="1"/>
+        <v>890</v>
+      </c>
+      <c r="F891">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A892" s="2"/>
-      <c r="F892" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E892">
+        <f ca="1"/>
+        <v>891</v>
+      </c>
+      <c r="F892">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A893" s="2"/>
-      <c r="F893" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E893">
+        <f ca="1"/>
+        <v>892</v>
+      </c>
+      <c r="F893">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A894" s="2"/>
-      <c r="F894" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E894">
+        <f ca="1"/>
+        <v>893</v>
+      </c>
+      <c r="F894">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A895" s="2"/>
-      <c r="F895" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E895">
+        <f ca="1"/>
+        <v>894</v>
+      </c>
+      <c r="F895">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A896" s="2"/>
-      <c r="F896" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E896">
+        <f ca="1"/>
+        <v>895</v>
+      </c>
+      <c r="F896">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A897" s="2"/>
-      <c r="F897" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E897">
+        <f ca="1"/>
+        <v>896</v>
+      </c>
+      <c r="F897">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A898" s="2"/>
-      <c r="F898" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
+      <c r="E898">
+        <f ca="1"/>
+        <v>897</v>
+      </c>
+      <c r="F898">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A899" s="2"/>
-      <c r="F899" t="e">
-        <f t="shared" ref="F899:F962" si="18">VLOOKUP(E899,$A$2:$B$978,2)</f>
-        <v>#N/A</v>
+      <c r="E899">
+        <f ca="1"/>
+        <v>898</v>
+      </c>
+      <c r="F899">
+        <f t="shared" ref="F899:F962" ca="1" si="18">VLOOKUP(E899,$A$2:$B$978,2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A900" s="2"/>
-      <c r="F900" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E900">
+        <f ca="1"/>
+        <v>899</v>
+      </c>
+      <c r="F900">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A901" s="2"/>
-      <c r="F901" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E901">
+        <f ca="1"/>
+        <v>900</v>
+      </c>
+      <c r="F901">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A902" s="2"/>
-      <c r="F902" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E902">
+        <f ca="1"/>
+        <v>901</v>
+      </c>
+      <c r="F902">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A903" s="2"/>
-      <c r="F903" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E903">
+        <f ca="1"/>
+        <v>902</v>
+      </c>
+      <c r="F903">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A904" s="2"/>
-      <c r="F904" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E904">
+        <f ca="1"/>
+        <v>903</v>
+      </c>
+      <c r="F904">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A905" s="2"/>
-      <c r="F905" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E905">
+        <f ca="1"/>
+        <v>904</v>
+      </c>
+      <c r="F905">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A906" s="2"/>
-      <c r="F906" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E906">
+        <f ca="1"/>
+        <v>905</v>
+      </c>
+      <c r="F906">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A907" s="2"/>
-      <c r="F907" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E907">
+        <f ca="1"/>
+        <v>906</v>
+      </c>
+      <c r="F907">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A908" s="2"/>
-      <c r="F908" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E908">
+        <f ca="1"/>
+        <v>907</v>
+      </c>
+      <c r="F908">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A909" s="2"/>
-      <c r="F909" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E909">
+        <f ca="1"/>
+        <v>908</v>
+      </c>
+      <c r="F909">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A910" s="2"/>
-      <c r="F910" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E910">
+        <f ca="1"/>
+        <v>909</v>
+      </c>
+      <c r="F910">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A911" s="2"/>
-      <c r="F911" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E911">
+        <f ca="1"/>
+        <v>910</v>
+      </c>
+      <c r="F911">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A912" s="2"/>
-      <c r="F912" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E912">
+        <f ca="1"/>
+        <v>911</v>
+      </c>
+      <c r="F912">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A913" s="2"/>
-      <c r="F913" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E913">
+        <f ca="1"/>
+        <v>912</v>
+      </c>
+      <c r="F913">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A914" s="2"/>
-      <c r="F914" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E914">
+        <f ca="1"/>
+        <v>913</v>
+      </c>
+      <c r="F914">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A915" s="2"/>
-      <c r="F915" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E915">
+        <f ca="1"/>
+        <v>914</v>
+      </c>
+      <c r="F915">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A916" s="2"/>
-      <c r="F916" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E916">
+        <f ca="1"/>
+        <v>915</v>
+      </c>
+      <c r="F916">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A917" s="2"/>
-      <c r="F917" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E917">
+        <f ca="1"/>
+        <v>916</v>
+      </c>
+      <c r="F917">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A918" s="2"/>
-      <c r="F918" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E918">
+        <f ca="1"/>
+        <v>917</v>
+      </c>
+      <c r="F918">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A919" s="2"/>
-      <c r="F919" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E919">
+        <f ca="1"/>
+        <v>918</v>
+      </c>
+      <c r="F919">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A920" s="2"/>
-      <c r="F920" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E920">
+        <f ca="1"/>
+        <v>919</v>
+      </c>
+      <c r="F920">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A921" s="2"/>
-      <c r="F921" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E921">
+        <f ca="1"/>
+        <v>920</v>
+      </c>
+      <c r="F921">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A922" s="2"/>
-      <c r="F922" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E922">
+        <f ca="1"/>
+        <v>921</v>
+      </c>
+      <c r="F922">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A923" s="2"/>
-      <c r="F923" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E923">
+        <f ca="1"/>
+        <v>922</v>
+      </c>
+      <c r="F923">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A924" s="2"/>
-      <c r="F924" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E924">
+        <f ca="1"/>
+        <v>923</v>
+      </c>
+      <c r="F924">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A925" s="2"/>
-      <c r="F925" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E925">
+        <f ca="1"/>
+        <v>924</v>
+      </c>
+      <c r="F925">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A926" s="2"/>
-      <c r="F926" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E926">
+        <f ca="1"/>
+        <v>925</v>
+      </c>
+      <c r="F926">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A927" s="2"/>
-      <c r="F927" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E927">
+        <f ca="1"/>
+        <v>926</v>
+      </c>
+      <c r="F927">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A928" s="2"/>
-      <c r="F928" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E928">
+        <f ca="1"/>
+        <v>927</v>
+      </c>
+      <c r="F928">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A929" s="2"/>
-      <c r="F929" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E929">
+        <f ca="1"/>
+        <v>928</v>
+      </c>
+      <c r="F929">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A930" s="2"/>
-      <c r="F930" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E930">
+        <f ca="1"/>
+        <v>929</v>
+      </c>
+      <c r="F930">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A931" s="2"/>
-      <c r="F931" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E931">
+        <f ca="1"/>
+        <v>930</v>
+      </c>
+      <c r="F931">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A932" s="2"/>
-      <c r="F932" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E932">
+        <f ca="1"/>
+        <v>931</v>
+      </c>
+      <c r="F932">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A933" s="2"/>
-      <c r="F933" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E933">
+        <f ca="1"/>
+        <v>932</v>
+      </c>
+      <c r="F933">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A934" s="2"/>
-      <c r="F934" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E934">
+        <f ca="1"/>
+        <v>933</v>
+      </c>
+      <c r="F934">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A935" s="2"/>
-      <c r="F935" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E935">
+        <f ca="1"/>
+        <v>934</v>
+      </c>
+      <c r="F935">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A936" s="2"/>
-      <c r="F936" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E936">
+        <f ca="1"/>
+        <v>935</v>
+      </c>
+      <c r="F936">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A937" s="2"/>
-      <c r="F937" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E937">
+        <f ca="1"/>
+        <v>936</v>
+      </c>
+      <c r="F937">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A938" s="2"/>
-      <c r="F938" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E938">
+        <f ca="1"/>
+        <v>937</v>
+      </c>
+      <c r="F938">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A939" s="2"/>
-      <c r="F939" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E939">
+        <f ca="1"/>
+        <v>938</v>
+      </c>
+      <c r="F939">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A940" s="2"/>
-      <c r="F940" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E940">
+        <f ca="1"/>
+        <v>939</v>
+      </c>
+      <c r="F940">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A941" s="2"/>
-      <c r="F941" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E941">
+        <f ca="1"/>
+        <v>940</v>
+      </c>
+      <c r="F941">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A942" s="2"/>
-      <c r="F942" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E942">
+        <f ca="1"/>
+        <v>941</v>
+      </c>
+      <c r="F942">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A943" s="2"/>
-      <c r="F943" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E943">
+        <f ca="1"/>
+        <v>942</v>
+      </c>
+      <c r="F943">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A944" s="2"/>
-      <c r="F944" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E944">
+        <f ca="1"/>
+        <v>943</v>
+      </c>
+      <c r="F944">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A945" s="2"/>
-      <c r="F945" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E945">
+        <f ca="1"/>
+        <v>944</v>
+      </c>
+      <c r="F945">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A946" s="2"/>
-      <c r="F946" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E946">
+        <f ca="1"/>
+        <v>945</v>
+      </c>
+      <c r="F946">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A947" s="2"/>
-      <c r="F947" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E947">
+        <f ca="1"/>
+        <v>946</v>
+      </c>
+      <c r="F947">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A948" s="2"/>
-      <c r="F948" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E948">
+        <f ca="1"/>
+        <v>947</v>
+      </c>
+      <c r="F948">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A949" s="2"/>
-      <c r="F949" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E949">
+        <f ca="1"/>
+        <v>948</v>
+      </c>
+      <c r="F949">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A950" s="2"/>
-      <c r="F950" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E950">
+        <f ca="1"/>
+        <v>949</v>
+      </c>
+      <c r="F950">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A951" s="2"/>
-      <c r="F951" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E951">
+        <f ca="1"/>
+        <v>950</v>
+      </c>
+      <c r="F951">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A952" s="2"/>
-      <c r="F952" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E952">
+        <f ca="1"/>
+        <v>951</v>
+      </c>
+      <c r="F952">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A953" s="2"/>
-      <c r="F953" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E953">
+        <f ca="1"/>
+        <v>952</v>
+      </c>
+      <c r="F953">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A954" s="2"/>
-      <c r="F954" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E954">
+        <f ca="1"/>
+        <v>953</v>
+      </c>
+      <c r="F954">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A955" s="2"/>
-      <c r="F955" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E955">
+        <f ca="1"/>
+        <v>954</v>
+      </c>
+      <c r="F955">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A956" s="2"/>
-      <c r="F956" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E956">
+        <f ca="1"/>
+        <v>955</v>
+      </c>
+      <c r="F956">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A957" s="2"/>
-      <c r="F957" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E957">
+        <f ca="1"/>
+        <v>956</v>
+      </c>
+      <c r="F957">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A958" s="2"/>
-      <c r="F958" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E958">
+        <f ca="1"/>
+        <v>957</v>
+      </c>
+      <c r="F958">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A959" s="2"/>
-      <c r="F959" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E959">
+        <f ca="1"/>
+        <v>958</v>
+      </c>
+      <c r="F959">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A960" s="2"/>
-      <c r="F960" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E960">
+        <f ca="1"/>
+        <v>959</v>
+      </c>
+      <c r="F960">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A961" s="2"/>
-      <c r="F961" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E961">
+        <f ca="1"/>
+        <v>960</v>
+      </c>
+      <c r="F961">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A962" s="2"/>
-      <c r="F962" t="e">
-        <f t="shared" si="18"/>
-        <v>#N/A</v>
+      <c r="E962">
+        <f ca="1"/>
+        <v>961</v>
+      </c>
+      <c r="F962">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A963" s="2"/>
-      <c r="F963" t="e">
-        <f t="shared" ref="F963:F1026" si="19">VLOOKUP(E963,$A$2:$B$978,2)</f>
-        <v>#N/A</v>
+      <c r="E963">
+        <f ca="1"/>
+        <v>962</v>
+      </c>
+      <c r="F963">
+        <f t="shared" ref="F963:F1026" ca="1" si="19">VLOOKUP(E963,$A$2:$B$978,2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A964" s="2"/>
-      <c r="F964" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E964">
+        <f ca="1"/>
+        <v>963</v>
+      </c>
+      <c r="F964">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A965" s="2"/>
-      <c r="F965" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E965">
+        <f ca="1"/>
+        <v>964</v>
+      </c>
+      <c r="F965">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A966" s="2"/>
-      <c r="F966" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E966">
+        <f ca="1"/>
+        <v>965</v>
+      </c>
+      <c r="F966">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A967" s="2"/>
-      <c r="F967" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E967">
+        <f ca="1"/>
+        <v>966</v>
+      </c>
+      <c r="F967">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A968" s="2"/>
-      <c r="F968" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E968">
+        <f ca="1"/>
+        <v>967</v>
+      </c>
+      <c r="F968">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A969" s="2"/>
-      <c r="F969" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E969">
+        <f ca="1"/>
+        <v>968</v>
+      </c>
+      <c r="F969">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A970" s="2"/>
-      <c r="F970" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E970">
+        <f ca="1"/>
+        <v>969</v>
+      </c>
+      <c r="F970">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A971" s="2"/>
-      <c r="F971" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E971">
+        <f ca="1"/>
+        <v>970</v>
+      </c>
+      <c r="F971">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A972" s="2"/>
-      <c r="F972" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E972">
+        <f ca="1"/>
+        <v>971</v>
+      </c>
+      <c r="F972">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A973" s="2"/>
-      <c r="F973" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E973">
+        <f ca="1"/>
+        <v>972</v>
+      </c>
+      <c r="F973">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A974" s="2"/>
-      <c r="F974" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E974">
+        <f ca="1"/>
+        <v>973</v>
+      </c>
+      <c r="F974">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A975" s="2"/>
-      <c r="F975" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E975">
+        <f ca="1"/>
+        <v>974</v>
+      </c>
+      <c r="F975">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A976" s="2"/>
-      <c r="F976" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E976">
+        <f ca="1"/>
+        <v>975</v>
+      </c>
+      <c r="F976">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
-      <c r="F977" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E977">
+        <f ca="1"/>
+        <v>976</v>
+      </c>
+      <c r="F977">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
-      <c r="F978" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E978">
+        <f ca="1"/>
+        <v>977</v>
+      </c>
+      <c r="F978">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
-      <c r="F979" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E979">
+        <f ca="1"/>
+        <v>978</v>
+      </c>
+      <c r="F979">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
-      <c r="F980" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E980">
+        <f ca="1"/>
+        <v>979</v>
+      </c>
+      <c r="F980">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
-      <c r="F981" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E981">
+        <f ca="1"/>
+        <v>980</v>
+      </c>
+      <c r="F981">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A982" s="2"/>
-      <c r="F982" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E982">
+        <f ca="1"/>
+        <v>981</v>
+      </c>
+      <c r="F982">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A983" s="2"/>
-      <c r="F983" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E983">
+        <f ca="1"/>
+        <v>982</v>
+      </c>
+      <c r="F983">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A984" s="2"/>
-      <c r="F984" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E984">
+        <f ca="1"/>
+        <v>983</v>
+      </c>
+      <c r="F984">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A985" s="2"/>
-      <c r="F985" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E985">
+        <f ca="1"/>
+        <v>984</v>
+      </c>
+      <c r="F985">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A986" s="2"/>
-      <c r="F986" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E986">
+        <f ca="1"/>
+        <v>985</v>
+      </c>
+      <c r="F986">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A987" s="2"/>
-      <c r="F987" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E987">
+        <f ca="1"/>
+        <v>986</v>
+      </c>
+      <c r="F987">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A988" s="2"/>
-      <c r="F988" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E988">
+        <f ca="1"/>
+        <v>987</v>
+      </c>
+      <c r="F988">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A989" s="2"/>
-      <c r="F989" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E989">
+        <f ca="1"/>
+        <v>988</v>
+      </c>
+      <c r="F989">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A990" s="2"/>
-      <c r="F990" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E990">
+        <f ca="1"/>
+        <v>989</v>
+      </c>
+      <c r="F990">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A991" s="2"/>
-      <c r="F991" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E991">
+        <f ca="1"/>
+        <v>990</v>
+      </c>
+      <c r="F991">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A992" s="2"/>
-      <c r="F992" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E992">
+        <f ca="1"/>
+        <v>991</v>
+      </c>
+      <c r="F992">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A993" s="2"/>
-      <c r="F993" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E993">
+        <f ca="1"/>
+        <v>992</v>
+      </c>
+      <c r="F993">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A994" s="2"/>
-      <c r="F994" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E994">
+        <f ca="1"/>
+        <v>993</v>
+      </c>
+      <c r="F994">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A995" s="2"/>
-      <c r="F995" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E995">
+        <f ca="1"/>
+        <v>994</v>
+      </c>
+      <c r="F995">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A996" s="2"/>
-      <c r="F996" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E996">
+        <f ca="1"/>
+        <v>995</v>
+      </c>
+      <c r="F996">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A997" s="2"/>
-      <c r="F997" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E997">
+        <f ca="1"/>
+        <v>996</v>
+      </c>
+      <c r="F997">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A998" s="2"/>
-      <c r="F998" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E998">
+        <f ca="1"/>
+        <v>997</v>
+      </c>
+      <c r="F998">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A999" s="2"/>
-      <c r="F999" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E999">
+        <f ca="1"/>
+        <v>998</v>
+      </c>
+      <c r="F999">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1000" s="2"/>
-      <c r="F1000" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E1000">
+        <f ca="1"/>
+        <v>999</v>
+      </c>
+      <c r="F1000">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1001" s="2"/>
-      <c r="F1001" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E1001">
+        <f ca="1"/>
+        <v>1000</v>
+      </c>
+      <c r="F1001">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1002" s="2"/>
-      <c r="F1002" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
+      <c r="E1002">
+        <f ca="1"/>
+        <v>1001</v>
+      </c>
+      <c r="F1002">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
